--- a/NCAABracketMaker/SimBrackets/Sim_Bracket.xlsx
+++ b/NCAABracketMaker/SimBrackets/Sim_Bracket.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Bracket" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="mens2022-1-1-0.25-2-Sim" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="mens2022-1-1-1-3-Sim" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="mens2022-1-1.5-1-3-Sim" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="womens2022-1-1.5-1-3-Sim" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Method" vbProcedure="false">#REF!</definedName>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="262">
   <si>
     <t xml:space="preserve">NCAA Basketball Tournament Bracket</t>
   </si>
@@ -76,7 +79,7 @@
     <t xml:space="preserve">Sheet</t>
   </si>
   <si>
-    <t xml:space="preserve">Mens2022-1-1-0.25-2-Sim</t>
+    <t xml:space="preserve">Sheet List</t>
   </si>
   <si>
     <t xml:space="preserve">d1r1seed1</t>
@@ -286,6 +289,9 @@
     <t xml:space="preserve">d2r4seed1</t>
   </si>
   <si>
+    <t xml:space="preserve">d2r3seed1</t>
+  </si>
+  <si>
     <t xml:space="preserve">d1r3seed1</t>
   </si>
   <si>
@@ -470,6 +476,9 @@
   </si>
   <si>
     <t xml:space="preserve">d1r3seed15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">d1r1seed11a</t>
@@ -700,7 +709,136 @@
     <t xml:space="preserve"> Norfolk State</t>
   </si>
   <si>
-    <t xml:space="preserve">d2r3seed1</t>
+    <t xml:space="preserve"> Dayton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DePaul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d1r2seed11a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mount St. Mary's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d1r2seed11b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Florida State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stephen F. Austin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UNLV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UT Arlington</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Illinois State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Howard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stanford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maryland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Utah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Georgia Tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Florida Gulf Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jackson State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fairfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NC State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oklahoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Washington State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kansas State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Princeton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UMass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IUPUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charlotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mercer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Louisville</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oregon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BYU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ole Miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nebraska</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Dakota</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Belmont</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Buffalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American University</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hawai'i</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Albany</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1212,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1263,7 +1401,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1305,10 +1443,6 @@
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1390,11 +1524,11 @@
   </sheetPr>
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R19" activeCellId="0" sqref="R19"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE44" activeCellId="0" sqref="AE44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.51"/>
@@ -1549,8 +1683,9 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
-        <v>8</v>
+      <c r="C4" s="16" t="str">
+        <f aca="false">AE8</f>
+        <v>womens2022-1-1.5-1-3-Sim</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="16"/>
@@ -1578,7 +1713,9 @@
       <c r="AA4" s="17"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
-      <c r="AE4" s="14"/>
+      <c r="AE4" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
@@ -1598,7 +1735,10 @@
       <c r="AA5" s="17"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="9"/>
-      <c r="AE5" s="14"/>
+      <c r="AE5" s="14" t="str">
+        <f aca="false">'mens2022-1-1-0.25-2-Sim'!A1</f>
+        <v>mens2022-1-1-0.25-2-Sim</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -1607,14 +1747,14 @@
       </c>
       <c r="C6" s="21" t="str">
         <f aca="true">VLOOKUP(D6,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Gonzaga</v>
+        <v> South Carolina</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="23" t="str">
         <f aca="true">VLOOKUP(F6,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Gonzaga</v>
+        <v> South Carolina</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>10</v>
@@ -1632,19 +1772,22 @@
       </c>
       <c r="Z6" s="23" t="str">
         <f aca="true">VLOOKUP(Y6,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Arizona</v>
+        <v> Stanford</v>
       </c>
       <c r="AA6" s="22" t="s">
         <v>12</v>
       </c>
       <c r="AB6" s="25" t="str">
         <f aca="true">VLOOKUP(AA6,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Arizona</v>
+        <v> Stanford</v>
       </c>
       <c r="AC6" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="AE6" s="14"/>
+      <c r="AE6" s="14" t="str">
+        <f aca="false">'mens2022-1-1-1-3-Sim'!A1</f>
+        <v>mens2022-1-1-1-3-Sim</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="26"/>
@@ -1666,7 +1809,10 @@
       <c r="AA7" s="30"/>
       <c r="AB7" s="31"/>
       <c r="AC7" s="27"/>
-      <c r="AE7" s="14"/>
+      <c r="AE7" s="14" t="str">
+        <f aca="false">'mens2022-1-1.5-1-3-Sim'!A1</f>
+        <v>mens2022-1-1.5-1-3-Sim</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="26"/>
@@ -1675,7 +1821,7 @@
       </c>
       <c r="C8" s="21" t="str">
         <f aca="true">VLOOKUP(D8,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Georgia State</v>
+        <v> Howard</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>13</v>
@@ -1684,7 +1830,7 @@
       <c r="F8" s="34"/>
       <c r="G8" s="35" t="str">
         <f aca="true">VLOOKUP(H8,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Gonzaga</v>
+        <v> South Carolina</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>14</v>
@@ -1700,7 +1846,7 @@
       </c>
       <c r="X8" s="23" t="str">
         <f aca="true">VLOOKUP(W8,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Arizona</v>
+        <v> Stanford</v>
       </c>
       <c r="Y8" s="30"/>
       <c r="Z8" s="33"/>
@@ -1709,12 +1855,15 @@
       </c>
       <c r="AB8" s="25" t="str">
         <f aca="true">VLOOKUP(AA8,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Bryant</v>
+        <v> Montana State</v>
       </c>
       <c r="AC8" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="AE8" s="14"/>
+      <c r="AE8" s="14" t="str">
+        <f aca="false">'womens2022-1-1.5-1-3-Sim'!A1</f>
+        <v>womens2022-1-1.5-1-3-Sim</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
@@ -1738,7 +1887,10 @@
       <c r="AA9" s="17"/>
       <c r="AB9" s="31"/>
       <c r="AC9" s="27"/>
-      <c r="AE9" s="14"/>
+      <c r="AE9" s="14" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
@@ -1747,14 +1899,14 @@
       </c>
       <c r="C10" s="21" t="str">
         <f aca="true">VLOOKUP(D10,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Boise State</v>
+        <v> Miami</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="23" t="str">
         <f aca="true">VLOOKUP(F10,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Boise State</v>
+        <v> South Florida</v>
       </c>
       <c r="F10" s="39" t="s">
         <v>18</v>
@@ -1774,19 +1926,22 @@
       </c>
       <c r="Z10" s="23" t="str">
         <f aca="true">VLOOKUP(Y10,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Seton Hall</v>
+        <v> Kansas</v>
       </c>
       <c r="AA10" s="24" t="s">
         <v>20</v>
       </c>
       <c r="AB10" s="25" t="str">
         <f aca="true">VLOOKUP(AA10,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Seton Hall</v>
+        <v> Kansas</v>
       </c>
       <c r="AC10" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="AE10" s="14"/>
+      <c r="AE10" s="14" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="26"/>
@@ -1810,7 +1965,10 @@
       <c r="AA11" s="30"/>
       <c r="AB11" s="31"/>
       <c r="AC11" s="27"/>
-      <c r="AE11" s="14"/>
+      <c r="AE11" s="14" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="26"/>
@@ -1819,7 +1977,7 @@
       </c>
       <c r="C12" s="21" t="str">
         <f aca="true">VLOOKUP(D12,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Memphis</v>
+        <v> South Florida</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>21</v>
@@ -1840,7 +1998,7 @@
       </c>
       <c r="V12" s="23" t="str">
         <f aca="true">VLOOKUP(U12,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Arizona</v>
+        <v> Stanford</v>
       </c>
       <c r="W12" s="38"/>
       <c r="X12" s="40"/>
@@ -1851,12 +2009,15 @@
       </c>
       <c r="AB12" s="25" t="str">
         <f aca="true">VLOOKUP(AA12,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> TCU</v>
+        <v> Georgia Tech</v>
       </c>
       <c r="AC12" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="AE12" s="14"/>
+      <c r="AE12" s="14" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
@@ -1869,7 +2030,7 @@
       <c r="H13" s="37"/>
       <c r="I13" s="35" t="str">
         <f aca="true">VLOOKUP(J12,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Gonzaga</v>
+        <v> South Carolina</v>
       </c>
       <c r="J13" s="24"/>
       <c r="L13" s="17"/>
@@ -1885,7 +2046,10 @@
       <c r="AA13" s="17"/>
       <c r="AB13" s="31"/>
       <c r="AC13" s="27"/>
-      <c r="AE13" s="14"/>
+      <c r="AE13" s="14" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
@@ -1894,14 +2058,14 @@
       </c>
       <c r="C14" s="21" t="str">
         <f aca="true">VLOOKUP(D14,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> UConn</v>
+        <v> North Carolina</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="23" t="str">
         <f aca="true">VLOOKUP(F14,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> New Mexico State</v>
+        <v> Stephen F. Austin</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>26</v>
@@ -1921,17 +2085,21 @@
       </c>
       <c r="Z14" s="23" t="str">
         <f aca="true">VLOOKUP(Y14,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Houston</v>
+        <v> Florida Gulf Coast</v>
       </c>
       <c r="AA14" s="24" t="s">
         <v>28</v>
       </c>
       <c r="AB14" s="25" t="str">
         <f aca="true">VLOOKUP(AA14,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Houston</v>
+        <v> Virginia Tech</v>
       </c>
       <c r="AC14" s="20" t="n">
         <v>5</v>
+      </c>
+      <c r="AE14" s="14" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1956,6 +2124,10 @@
       <c r="AA15" s="30"/>
       <c r="AB15" s="31"/>
       <c r="AC15" s="27"/>
+      <c r="AE15" s="14" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="26"/>
@@ -1964,7 +2136,7 @@
       </c>
       <c r="C16" s="21" t="str">
         <f aca="true">VLOOKUP(D16,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> New Mexico State</v>
+        <v> Stephen F. Austin</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>29</v>
@@ -1973,7 +2145,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="35" t="str">
         <f aca="true">VLOOKUP(H16,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> New Mexico State</v>
+        <v> Stephen F. Austin</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>30</v>
@@ -1989,7 +2161,7 @@
       </c>
       <c r="X16" s="23" t="str">
         <f aca="true">VLOOKUP(W16,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Houston</v>
+        <v> Florida Gulf Coast</v>
       </c>
       <c r="Y16" s="30"/>
       <c r="Z16" s="33"/>
@@ -1998,10 +2170,14 @@
       </c>
       <c r="AB16" s="25" t="str">
         <f aca="true">VLOOKUP(AA16,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> UAB</v>
+        <v> Florida Gulf Coast</v>
       </c>
       <c r="AC16" s="20" t="n">
         <v>12</v>
+      </c>
+      <c r="AE16" s="14" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2026,6 +2202,10 @@
       <c r="AA17" s="17"/>
       <c r="AB17" s="31"/>
       <c r="AC17" s="27"/>
+      <c r="AE17" s="14" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
@@ -2034,14 +2214,14 @@
       </c>
       <c r="C18" s="21" t="str">
         <f aca="true">VLOOKUP(D18,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Arkansas</v>
+        <v> Arizona</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="23" t="str">
         <f aca="true">VLOOKUP(F18,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Vermont</v>
+        <v> UNLV</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>34</v>
@@ -2063,17 +2243,21 @@
       </c>
       <c r="Z18" s="23" t="str">
         <f aca="true">VLOOKUP(Y18,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Chattanooga</v>
+        <v> Maryland</v>
       </c>
       <c r="AA18" s="24" t="s">
         <v>36</v>
       </c>
       <c r="AB18" s="25" t="str">
         <f aca="true">VLOOKUP(AA18,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Illinois</v>
+        <v> Maryland</v>
       </c>
       <c r="AC18" s="20" t="n">
         <v>4</v>
+      </c>
+      <c r="AE18" s="14" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2098,6 +2282,10 @@
       <c r="AA19" s="30"/>
       <c r="AB19" s="31"/>
       <c r="AC19" s="27"/>
+      <c r="AE19" s="14" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="26"/>
@@ -2106,7 +2294,7 @@
       </c>
       <c r="C20" s="21" t="str">
         <f aca="true">VLOOKUP(D20,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Vermont</v>
+        <v> UNLV</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>37</v>
@@ -2121,7 +2309,7 @@
       <c r="J20" s="37"/>
       <c r="K20" s="35" t="str">
         <f aca="true">VLOOKUP(L20,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Gonzaga</v>
+        <v> South Carolina</v>
       </c>
       <c r="L20" s="24" t="s">
         <v>39</v>
@@ -2133,7 +2321,7 @@
       </c>
       <c r="T20" s="23" t="str">
         <f aca="true">VLOOKUP(S20,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Arizona</v>
+        <v> Stanford</v>
       </c>
       <c r="U20" s="38"/>
       <c r="V20" s="43" t="s">
@@ -2148,10 +2336,14 @@
       </c>
       <c r="AB20" s="25" t="str">
         <f aca="true">VLOOKUP(AA20,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Chattanooga</v>
+        <v> Delaware</v>
       </c>
       <c r="AC20" s="20" t="n">
         <v>13</v>
+      </c>
+      <c r="AE20" s="14" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2180,6 +2372,7 @@
       <c r="AA21" s="17"/>
       <c r="AB21" s="31"/>
       <c r="AC21" s="27"/>
+      <c r="AE21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
@@ -2188,14 +2381,14 @@
       </c>
       <c r="C22" s="21" t="str">
         <f aca="true">VLOOKUP(D22,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Alabama</v>
+        <v> Georgia</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="23" t="str">
         <f aca="true">VLOOKUP(F23,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Notre Dame</v>
+        <v> Dayton</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="17"/>
@@ -2214,14 +2407,14 @@
       </c>
       <c r="Z22" s="23" t="str">
         <f aca="true">VLOOKUP(Y22,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Colorado State</v>
+        <v> Ohio State</v>
       </c>
       <c r="AA22" s="24" t="s">
         <v>45</v>
       </c>
       <c r="AB22" s="25" t="str">
         <f aca="true">VLOOKUP(AA22,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Colorado State</v>
+        <v> Ohio State</v>
       </c>
       <c r="AC22" s="20" t="n">
         <v>6</v>
@@ -2259,7 +2452,7 @@
       </c>
       <c r="C24" s="21" t="str">
         <f aca="true">VLOOKUP(D24,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Notre Dame</v>
+        <v> Dayton</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>47</v>
@@ -2268,7 +2461,7 @@
       <c r="F24" s="34"/>
       <c r="G24" s="35" t="str">
         <f aca="true">VLOOKUP(H24,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Montana State</v>
+        <v> Iowa State</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>48</v>
@@ -2284,7 +2477,7 @@
       </c>
       <c r="X24" s="23" t="str">
         <f aca="true">VLOOKUP(W24,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Colorado State</v>
+        <v> LSU</v>
       </c>
       <c r="Y24" s="30"/>
       <c r="Z24" s="33"/>
@@ -2293,7 +2486,7 @@
       </c>
       <c r="AB24" s="25" t="str">
         <f aca="true">VLOOKUP(AA24,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Michigan</v>
+        <v> Florida State</v>
       </c>
       <c r="AC24" s="20" t="n">
         <v>11</v>
@@ -2329,14 +2522,14 @@
       </c>
       <c r="C26" s="21" t="str">
         <f aca="true">VLOOKUP(D26,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Texas Tech</v>
+        <v> Iowa State</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="23" t="str">
         <f aca="true">VLOOKUP(F26,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Montana State</v>
+        <v> Iowa State</v>
       </c>
       <c r="F26" s="39" t="s">
         <v>52</v>
@@ -2356,14 +2549,14 @@
       </c>
       <c r="Z26" s="23" t="str">
         <f aca="true">VLOOKUP(Y26,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Tennessee</v>
+        <v> LSU</v>
       </c>
       <c r="AA26" s="24" t="s">
         <v>54</v>
       </c>
       <c r="AB26" s="25" t="str">
         <f aca="true">VLOOKUP(AA26,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Tennessee</v>
+        <v> LSU</v>
       </c>
       <c r="AC26" s="20" t="n">
         <v>3</v>
@@ -2399,7 +2592,7 @@
       </c>
       <c r="C28" s="21" t="str">
         <f aca="true">VLOOKUP(D28,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Montana State</v>
+        <v> UT Arlington</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>55</v>
@@ -2410,7 +2603,7 @@
       <c r="H28" s="37"/>
       <c r="I28" s="35" t="str">
         <f aca="true">VLOOKUP(J28,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Duke</v>
+        <v> Iowa State</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>56</v>
@@ -2418,7 +2611,7 @@
       <c r="L28" s="37"/>
       <c r="M28" s="35" t="str">
         <f aca="true">VLOOKUP(P28,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Murray State</v>
+        <v> South Carolina</v>
       </c>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
@@ -2432,7 +2625,7 @@
       </c>
       <c r="V28" s="23" t="str">
         <f aca="true">VLOOKUP(U28,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Colorado State</v>
+        <v> Texas</v>
       </c>
       <c r="W28" s="38"/>
       <c r="X28" s="40"/>
@@ -2443,7 +2636,7 @@
       </c>
       <c r="AB28" s="25" t="str">
         <f aca="true">VLOOKUP(AA28,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Longwood</v>
+        <v> Jackson State</v>
       </c>
       <c r="AC28" s="20" t="n">
         <v>14</v>
@@ -2484,14 +2677,14 @@
       </c>
       <c r="C30" s="21" t="str">
         <f aca="true">VLOOKUP(D30,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Michigan State</v>
+        <v> Colorado</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>60</v>
       </c>
       <c r="E30" s="23" t="str">
         <f aca="true">VLOOKUP(F30,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Davidson</v>
+        <v> Colorado</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>61</v>
@@ -2511,14 +2704,14 @@
       </c>
       <c r="Z30" s="23" t="str">
         <f aca="true">VLOOKUP(Y30,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Loyola Chicago</v>
+        <v> Utah</v>
       </c>
       <c r="AA30" s="24" t="s">
         <v>63</v>
       </c>
       <c r="AB30" s="25" t="str">
         <f aca="true">VLOOKUP(AA30,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Ohio State</v>
+        <v> Utah</v>
       </c>
       <c r="AC30" s="20" t="n">
         <v>7</v>
@@ -2560,7 +2753,7 @@
       </c>
       <c r="C32" s="21" t="str">
         <f aca="true">VLOOKUP(D32,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Davidson</v>
+        <v> Creighton</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>65</v>
@@ -2569,7 +2762,7 @@
       <c r="F32" s="34"/>
       <c r="G32" s="35" t="str">
         <f aca="true">VLOOKUP(H32,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Duke</v>
+        <v> Iowa</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>66</v>
@@ -2589,7 +2782,7 @@
       </c>
       <c r="X32" s="23" t="str">
         <f aca="true">VLOOKUP(W32,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Villanova</v>
+        <v> Texas</v>
       </c>
       <c r="Y32" s="30"/>
       <c r="Z32" s="33"/>
@@ -2598,7 +2791,7 @@
       </c>
       <c r="AB32" s="25" t="str">
         <f aca="true">VLOOKUP(AA32,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Loyola Chicago</v>
+        <v> Arkansas</v>
       </c>
       <c r="AC32" s="20" t="n">
         <v>10</v>
@@ -2618,7 +2811,7 @@
       <c r="M33" s="48"/>
       <c r="N33" s="49" t="str">
         <f aca="true">VLOOKUP(N35,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Murray State</v>
+        <v> South Carolina</v>
       </c>
       <c r="O33" s="49"/>
       <c r="P33" s="49"/>
@@ -2641,14 +2834,14 @@
       </c>
       <c r="C34" s="21" t="str">
         <f aca="true">VLOOKUP(D34,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Duke</v>
+        <v> Iowa</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="23" t="str">
         <f aca="true">VLOOKUP(F34,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Duke</v>
+        <v> Iowa</v>
       </c>
       <c r="F34" s="39" t="s">
         <v>70</v>
@@ -2672,14 +2865,14 @@
       </c>
       <c r="Z34" s="23" t="str">
         <f aca="true">VLOOKUP(Y34,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Villanova</v>
+        <v> Texas</v>
       </c>
       <c r="AA34" s="24" t="s">
         <v>72</v>
       </c>
       <c r="AB34" s="25" t="str">
         <f aca="true">VLOOKUP(AA34,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Villanova</v>
+        <v> Texas</v>
       </c>
       <c r="AC34" s="20" t="n">
         <v>2</v>
@@ -2718,7 +2911,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f aca="true">VLOOKUP(D36,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> CSU Fullerton</v>
+        <v> Illinois State</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>74</v>
@@ -2744,7 +2937,7 @@
       </c>
       <c r="AB36" s="25" t="str">
         <f aca="true">VLOOKUP(AA36,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Delaware</v>
+        <v> Fairfield</v>
       </c>
       <c r="AC36" s="20" t="n">
         <v>15</v>
@@ -2780,14 +2973,14 @@
       </c>
       <c r="C38" s="21" t="str">
         <f aca="true">VLOOKUP(D38,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Baylor</v>
+        <v> Louisville</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>76</v>
       </c>
       <c r="E38" s="23" t="str">
         <f aca="true">VLOOKUP(F38,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Baylor</v>
+        <v> Louisville</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>77</v>
@@ -2803,18 +2996,18 @@
       <c r="W38" s="17"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="24" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="Z38" s="23" t="str">
         <f aca="true">VLOOKUP(Y38,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Gonzaga</v>
+        <v> NC State</v>
       </c>
       <c r="AA38" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB38" s="25" t="str">
         <f aca="true">VLOOKUP(AA38,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Kansas</v>
+        <v> NC State</v>
       </c>
       <c r="AC38" s="20" t="n">
         <v>1</v>
@@ -2850,48 +3043,48 @@
       </c>
       <c r="C40" s="21" t="str">
         <f aca="true">VLOOKUP(D40,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Norfolk State</v>
+        <v> Albany</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E40" s="33"/>
       <c r="F40" s="34"/>
       <c r="G40" s="35" t="str">
         <f aca="true">VLOOKUP(H40,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Baylor</v>
+        <v> Louisville</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J40" s="17"/>
       <c r="L40" s="37"/>
       <c r="O40" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P40" s="51" t="str">
         <f aca="true">VLOOKUP(O40,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Arizona</v>
+        <v> Stanford</v>
       </c>
       <c r="Q40" s="51"/>
       <c r="R40" s="51"/>
       <c r="S40" s="38"/>
       <c r="U40" s="17"/>
       <c r="W40" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X40" s="23" t="str">
         <f aca="true">VLOOKUP(W40,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Kansas</v>
+        <v> NC State</v>
       </c>
       <c r="Y40" s="30"/>
       <c r="Z40" s="33"/>
       <c r="AA40" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB40" s="25" t="str">
         <f aca="true">VLOOKUP(AA40,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Texas A&amp;M-CC</v>
+        <v> Longwood</v>
       </c>
       <c r="AC40" s="20" t="n">
         <v>16</v>
@@ -2929,14 +3122,17 @@
       </c>
       <c r="C42" s="21" t="str">
         <f aca="true">VLOOKUP(D42,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> North Carolina</v>
+        <v> Nebraska</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="23"/>
+        <v>85</v>
+      </c>
+      <c r="E42" s="23" t="str">
+        <f aca="true">VLOOKUP(F42,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
+        <v> Gonzaga</v>
+      </c>
       <c r="F42" s="39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="34"/>
@@ -2949,18 +3145,18 @@
       <c r="W42" s="30"/>
       <c r="X42" s="9"/>
       <c r="Y42" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z42" s="23" t="str">
         <f aca="true">VLOOKUP(Y42,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> San Diego State</v>
+        <v> Washington State</v>
       </c>
       <c r="AA42" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB42" s="25" t="str">
         <f aca="true">VLOOKUP(AA42,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> San Diego State</v>
+        <v> Washington State</v>
       </c>
       <c r="AC42" s="20" t="n">
         <v>8</v>
@@ -2996,10 +3192,10 @@
       </c>
       <c r="C44" s="21" t="str">
         <f aca="true">VLOOKUP(D44,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Marquette</v>
+        <v> Gonzaga</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="17"/>
@@ -3007,32 +3203,32 @@
       <c r="H44" s="37"/>
       <c r="I44" s="35" t="str">
         <f aca="true">VLOOKUP(J44,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Saint Mary's</v>
+        <v> Louisville</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L44" s="37"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="S44" s="38"/>
       <c r="U44" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V44" s="23" t="str">
         <f aca="true">VLOOKUP(U44,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Kansas</v>
+        <v> NC State</v>
       </c>
       <c r="W44" s="38"/>
       <c r="X44" s="40"/>
       <c r="Y44" s="17"/>
       <c r="Z44" s="9"/>
       <c r="AA44" s="36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AB44" s="25" t="str">
         <f aca="true">VLOOKUP(AA44,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Creighton</v>
+        <v> Kansas State</v>
       </c>
       <c r="AC44" s="20" t="n">
         <v>9</v>
@@ -3070,17 +3266,17 @@
       </c>
       <c r="C46" s="21" t="str">
         <f aca="true">VLOOKUP(D46,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Saint Mary's</v>
+        <v> Oregon</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E46" s="23" t="str">
         <f aca="true">VLOOKUP(F46,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Saint Mary's</v>
+        <v> Oregon</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="37"/>
@@ -3093,18 +3289,18 @@
       <c r="W46" s="38"/>
       <c r="X46" s="9"/>
       <c r="Y46" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z46" s="23" t="str">
         <f aca="true">VLOOKUP(Y46,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Iowa</v>
+        <v> UMass</v>
       </c>
       <c r="AA46" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AB46" s="25" t="str">
         <f aca="true">VLOOKUP(AA46,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Iowa</v>
+        <v> Notre Dame</v>
       </c>
       <c r="AC46" s="20" t="n">
         <v>5</v>
@@ -3140,19 +3336,19 @@
       </c>
       <c r="C48" s="21" t="str">
         <f aca="true">VLOOKUP(D48,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Wyoming</v>
+        <v> Belmont</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E48" s="33"/>
       <c r="F48" s="34"/>
       <c r="G48" s="35" t="str">
         <f aca="true">VLOOKUP(H48,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Saint Mary's</v>
+        <v> Tennessee</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J48" s="37"/>
       <c r="L48" s="37"/>
@@ -3161,20 +3357,20 @@
       <c r="S48" s="38"/>
       <c r="U48" s="38"/>
       <c r="W48" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X48" s="23" t="str">
         <f aca="true">VLOOKUP(W48,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Providence</v>
+        <v> Oklahoma</v>
       </c>
       <c r="Y48" s="30"/>
       <c r="Z48" s="33"/>
       <c r="AA48" s="36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AB48" s="25" t="str">
         <f aca="true">VLOOKUP(AA48,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Richmond</v>
+        <v> UMass</v>
       </c>
       <c r="AC48" s="20" t="n">
         <v>12</v>
@@ -3210,17 +3406,17 @@
       </c>
       <c r="C50" s="21" t="str">
         <f aca="true">VLOOKUP(D50,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> UCLA</v>
+        <v> Tennessee</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E50" s="23" t="str">
         <f aca="true">VLOOKUP(F50,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> UCLA</v>
+        <v> Tennessee</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="17"/>
@@ -3233,18 +3429,18 @@
       <c r="W50" s="17"/>
       <c r="X50" s="9"/>
       <c r="Y50" s="36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z50" s="23" t="str">
         <f aca="true">VLOOKUP(Y50,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Providence</v>
+        <v> Oklahoma</v>
       </c>
       <c r="AA50" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB50" s="25" t="str">
         <f aca="true">VLOOKUP(AA50,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Providence</v>
+        <v> Oklahoma</v>
       </c>
       <c r="AC50" s="20" t="n">
         <v>4</v>
@@ -3280,49 +3476,49 @@
       </c>
       <c r="C52" s="21" t="str">
         <f aca="true">VLOOKUP(D52,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Akron</v>
+        <v> Buffalo</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="17"/>
       <c r="G52" s="9"/>
       <c r="H52" s="42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I52" s="42"/>
       <c r="J52" s="37"/>
       <c r="K52" s="35" t="str">
         <f aca="true">VLOOKUP(L52,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Murray State</v>
+        <v> Louisville</v>
       </c>
       <c r="L52" s="39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="S52" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T52" s="23" t="str">
         <f aca="true">VLOOKUP(S52,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Kansas</v>
+        <v> NC State</v>
       </c>
       <c r="U52" s="38"/>
       <c r="V52" s="43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W52" s="43"/>
       <c r="X52" s="9"/>
       <c r="Y52" s="17"/>
       <c r="Z52" s="9"/>
       <c r="AA52" s="36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB52" s="25" t="str">
         <f aca="true">VLOOKUP(AA52,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> South Dakota State</v>
+        <v> IUPUI</v>
       </c>
       <c r="AC52" s="20" t="n">
         <v>13</v>
@@ -3362,17 +3558,17 @@
       </c>
       <c r="C54" s="21" t="str">
         <f aca="true">VLOOKUP(D54,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Texas</v>
+        <v> BYU</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E54" s="23" t="str">
         <f aca="true">VLOOKUP(F54,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Texas</v>
+        <v> BYU</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="17"/>
@@ -3387,18 +3583,18 @@
       <c r="W54" s="17"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z54" s="23" t="str">
         <f aca="true">VLOOKUP(Y54,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> LSU</v>
+        <v> Princeton</v>
       </c>
       <c r="AA54" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB54" s="25" t="str">
         <f aca="true">VLOOKUP(AA54,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> LSU</v>
+        <v> Kentucky</v>
       </c>
       <c r="AC54" s="20" t="n">
         <v>6</v>
@@ -3434,19 +3630,19 @@
       </c>
       <c r="C56" s="21" t="str">
         <f aca="true">VLOOKUP(D56,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Virginia Tech</v>
+        <v> Villanova</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="34"/>
       <c r="G56" s="35" t="str">
         <f aca="true">VLOOKUP(H56,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Purdue</v>
+        <v> BYU</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J56" s="37"/>
       <c r="L56" s="17"/>
@@ -3455,20 +3651,20 @@
       <c r="S56" s="17"/>
       <c r="U56" s="38"/>
       <c r="W56" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X56" s="23" t="str">
         <f aca="true">VLOOKUP(W56,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Wisconsin</v>
+        <v> Princeton</v>
       </c>
       <c r="Y56" s="30"/>
       <c r="Z56" s="33"/>
       <c r="AA56" s="36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB56" s="25" t="str">
         <f aca="true">VLOOKUP(AA56,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Iowa State</v>
+        <v> Princeton</v>
       </c>
       <c r="AC56" s="53" t="n">
         <v>11</v>
@@ -3504,17 +3700,17 @@
       </c>
       <c r="C58" s="21" t="str">
         <f aca="true">VLOOKUP(D58,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Purdue</v>
+        <v> Michigan</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E58" s="23" t="str">
         <f aca="true">VLOOKUP(F58,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Purdue</v>
+        <v> Michigan</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="34"/>
@@ -3527,18 +3723,18 @@
       <c r="W58" s="30"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z58" s="23" t="str">
         <f aca="true">VLOOKUP(Y58,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Wisconsin</v>
+        <v> Indiana</v>
       </c>
       <c r="AA58" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB58" s="25" t="str">
         <f aca="true">VLOOKUP(AA58,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Wisconsin</v>
+        <v> Indiana</v>
       </c>
       <c r="AC58" s="20" t="n">
         <v>3</v>
@@ -3574,10 +3770,10 @@
       </c>
       <c r="C60" s="21" t="str">
         <f aca="true">VLOOKUP(D60,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Yale</v>
+        <v> American University</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="17"/>
@@ -3585,32 +3781,32 @@
       <c r="H60" s="37"/>
       <c r="I60" s="35" t="str">
         <f aca="true">VLOOKUP(J60,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Murray State</v>
+        <v> BYU</v>
       </c>
       <c r="J60" s="39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L60" s="17"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="S60" s="17"/>
       <c r="U60" s="36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V60" s="23" t="str">
         <f aca="true">VLOOKUP(U60,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Auburn</v>
+        <v> UCF</v>
       </c>
       <c r="W60" s="38"/>
       <c r="X60" s="40"/>
       <c r="Y60" s="17"/>
       <c r="Z60" s="9"/>
       <c r="AA60" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AB60" s="25" t="str">
         <f aca="true">VLOOKUP(AA60,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Colgate</v>
+        <v> Charlotte</v>
       </c>
       <c r="AC60" s="20" t="n">
         <v>14</v>
@@ -3648,17 +3844,17 @@
       </c>
       <c r="C62" s="21" t="str">
         <f aca="true">VLOOKUP(D62,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Murray State</v>
+        <v> Ole Miss</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E62" s="23" t="str">
         <f aca="true">VLOOKUP(F62,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Murray State</v>
+        <v> South Dakota</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="37"/>
@@ -3671,18 +3867,18 @@
       <c r="W62" s="38"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z62" s="23" t="str">
         <f aca="true">VLOOKUP(Y62,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> USC</v>
+        <v> UCF</v>
       </c>
       <c r="AA62" s="24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB62" s="25" t="str">
         <f aca="true">VLOOKUP(AA62,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> USC</v>
+        <v> UCF</v>
       </c>
       <c r="AC62" s="20" t="n">
         <v>7</v>
@@ -3718,18 +3914,18 @@
       </c>
       <c r="C64" s="21" t="str">
         <f aca="true">VLOOKUP(D64,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> San Francisco</v>
+        <v> South Dakota</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="35" t="str">
         <f aca="true">VLOOKUP(H64,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Murray State</v>
+        <v> Baylor</v>
       </c>
       <c r="H64" s="39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J64" s="17"/>
       <c r="L64" s="17"/>
@@ -3737,20 +3933,20 @@
       <c r="P64" s="9"/>
       <c r="U64" s="17"/>
       <c r="W64" s="36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="X64" s="23" t="str">
         <f aca="true">VLOOKUP(W64,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Auburn</v>
+        <v> UCF</v>
       </c>
       <c r="Y64" s="30"/>
       <c r="Z64" s="33"/>
       <c r="AA64" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AB64" s="25" t="str">
         <f aca="true">VLOOKUP(AA64,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Miami</v>
+        <v> Florida</v>
       </c>
       <c r="AC64" s="20" t="n">
         <v>10</v>
@@ -3784,17 +3980,17 @@
       </c>
       <c r="C66" s="21" t="str">
         <f aca="true">VLOOKUP(D66,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Kentucky</v>
+        <v> Baylor</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E66" s="23" t="str">
         <f aca="true">VLOOKUP(F66,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Kentucky</v>
+        <v> Baylor</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H66" s="17"/>
       <c r="J66" s="17"/>
@@ -3805,18 +4001,18 @@
       <c r="W66" s="17"/>
       <c r="X66" s="9"/>
       <c r="Y66" s="36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z66" s="23" t="str">
         <f aca="true">VLOOKUP(Y66,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Auburn</v>
+        <v> UConn</v>
       </c>
       <c r="AA66" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB66" s="25" t="str">
         <f aca="true">VLOOKUP(AA66,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Auburn</v>
+        <v> UConn</v>
       </c>
       <c r="AC66" s="20" t="n">
         <v>2</v>
@@ -3857,10 +4053,10 @@
       </c>
       <c r="C68" s="21" t="str">
         <f aca="true">VLOOKUP(D68,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Saint Peter's</v>
+        <v> Hawai'i</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F68" s="17"/>
       <c r="H68" s="17"/>
@@ -3880,11 +4076,11 @@
       <c r="Y68" s="17"/>
       <c r="Z68" s="9"/>
       <c r="AA68" s="36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AB68" s="25" t="str">
         <f aca="true">VLOOKUP(AA68,INDIRECT("'"&amp;$C$4&amp;"'!B1:c140"),2,0)</f>
-        <v> Jacksonville State</v>
+        <v> Mercer</v>
       </c>
       <c r="AC68" s="20" t="n">
         <v>15</v>
@@ -19910,6 +20106,12 @@
     <mergeCell ref="K67:T67"/>
     <mergeCell ref="K68:T68"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4" type="list">
+      <formula1>"=AE5,=AE6,=AE7,=AE8,=AE9,=AE10,=AE11,=AE12,=AE13,=AE14,=AE15,=AE16,=AE17,=AE18,=AE19,=AE20,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.35" bottom="0.35" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -19928,1492 +20130,6000 @@
   </sheetPr>
   <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B135" activeCellId="0" sqref="B135"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="57" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="57" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="57" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="57" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="57" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="57" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="57" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="57" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="57" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="57" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="57" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="57" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="57" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="57" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="57" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="57" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="57" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="57" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="57" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="57" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="57" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="57" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="57" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="57" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="57" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="57" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="57" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="57" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="57" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="57" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="57" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="57" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="57" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="57" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="57" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="57" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="57" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="57" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="57" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="57" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="57" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="57" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="57" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="57" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="57" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="57" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="57" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="57" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="57" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="57" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="57" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="57" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="57" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="57" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="57" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="57" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="57" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="57" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="57" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="57" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="57" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="57" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="57" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="57" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="57" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="57" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="57" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="57" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="57" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="57" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="57" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="57" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="57" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="57" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="57" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="57" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="57" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="57" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="57" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="57" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="57" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="57" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="57" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="57" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="57" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="57" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="57" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="57" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="57" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="57" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="57" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="57" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="57" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="57" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="57" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="57" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="57" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="57" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="57" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="57" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="57" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="57" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="57" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="57" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="57" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="57" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="57" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="57" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="57" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="57" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="57" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="57" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="57" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="57" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="57" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="57" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="57" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="57" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="57" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="57" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="57" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="57" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="57" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="57" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C135"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="B1" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="57" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="57" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="57" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="57" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="57" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="57" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="57" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="57" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="57" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="57" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="57" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="57" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="57" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="57" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="57" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="57" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="57" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="57" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="57" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="57" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="57" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="57" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="57" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="57" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="57" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="57" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="57" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="57" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="57" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="57" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="57" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="57" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="57" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="57" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="57" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="57" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="57" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="57" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="57" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="57" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="57" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="57" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="57" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="57" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="57" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="57" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="57" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="C55" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="57" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="57" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="57" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="57" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="57" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="57" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="57" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="57" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="57" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="57" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="57" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="57" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="57" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="57" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="57" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="57" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="57" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="57" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="57" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="57" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="57" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="57" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="57" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="57" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="57" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="57" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="57" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="57" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="57" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="57" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="57" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="57" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="57" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="57" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="57" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="57" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="57" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="57" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="57" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="57" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="57" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="57" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="57" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="57" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="57" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="57" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="57" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="57" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="57" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="57" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="57" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="57" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="57" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="57" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="57" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="57" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="57" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="57" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="57" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="57" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="57" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="57" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="57" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="57" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="57" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="57" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="57" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="57" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="57" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="57" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="57" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="57" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="57" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="57" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="57" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="57" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="57" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C135"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>142</v>
+      </c>
       <c r="C1" s="57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="57" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="57" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="57" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="57" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="57" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="57" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="57" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="57" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="57" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="57" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="57" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="57" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="57" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="57" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="57" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="57" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="57" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="57" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="57" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="57" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="57" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="57" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="57" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="57" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="57" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="57" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="57" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="57" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="57" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="57" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="57" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="57" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="57" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="57" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="57" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="57" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="57" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="57" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="57" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="57" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="57" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="57" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="57" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="57" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="57" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="57" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="57" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="57" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="57" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="57" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="57" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="57" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="57" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="57" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="57" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="57" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="57" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="57" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="57" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="57" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="57" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="57" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="57" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="57" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="57" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="57" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="57" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="57" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="57" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="57" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="57" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="57" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="57" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="57" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="57" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="57" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="57" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="57" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="57" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="57" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="57" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="57" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="57" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="57" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="57" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="57" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="57" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="57" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="57" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="57" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="57" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="57" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="57" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="57" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="57" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="57" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="57" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="57" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="57" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="57" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="57" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="57" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="57" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="57" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="57" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="57" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="57" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="57" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="57" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="57" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="57" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="57" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="57" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="57" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="57" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="57" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="57" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="57" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="57" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="57" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="57" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="57" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="57" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="57" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C133"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>141</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>143</v>
+      <c r="B2" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>145</v>
+      <c r="B3" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>147</v>
+      <c r="B4" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>149</v>
+      <c r="B5" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>151</v>
+      <c r="B6" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>153</v>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="57" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>155</v>
+      <c r="B8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="57" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>156</v>
+      <c r="B9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="57" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>157</v>
+      <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="57" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>158</v>
+      <c r="B11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="57" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>159</v>
+      <c r="B12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="57" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>160</v>
+      <c r="B13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="57" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>161</v>
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="57" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>162</v>
+      <c r="B15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="57" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>163</v>
+      <c r="B16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="57" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>164</v>
+      <c r="B17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="57" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>165</v>
+      <c r="B18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="57" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>143</v>
+      <c r="B19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="57" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>166</v>
+      <c r="B20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="57" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>167</v>
+      <c r="B21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="57" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>168</v>
+      <c r="B22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="57" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>169</v>
+      <c r="B23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="57" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>170</v>
+      <c r="B24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="57" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>171</v>
+      <c r="B25" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="57" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>172</v>
+      <c r="B26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="57" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>173</v>
+      <c r="B27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="57" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>174</v>
+      <c r="B28" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="57" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>175</v>
+      <c r="B29" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="57" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>176</v>
+      <c r="B30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="57" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>177</v>
+      <c r="B31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="57" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>178</v>
+      <c r="B32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="57" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>179</v>
+      <c r="B33" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="57" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>180</v>
+      <c r="B34" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="57" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>181</v>
+      <c r="B35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="57" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>182</v>
+      <c r="B36" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="57" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>183</v>
+      <c r="B37" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="57" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>184</v>
+      <c r="B38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="57" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>185</v>
+      <c r="B39" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="57" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>147</v>
+      <c r="B40" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="57" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>186</v>
+      <c r="B41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="57" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>187</v>
+      <c r="B42" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="57" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>188</v>
+      <c r="B43" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="57" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>189</v>
+      <c r="B44" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="57" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>190</v>
+      <c r="B45" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="57" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>191</v>
+      <c r="B46" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="57" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>192</v>
+      <c r="B47" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="57" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>193</v>
+      <c r="B48" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="57" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>194</v>
+      <c r="B49" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="57" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>195</v>
+      <c r="B50" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="57" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>196</v>
+      <c r="B51" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="57" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>197</v>
+      <c r="B52" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="57" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>198</v>
+      <c r="B53" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="57" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>199</v>
+      <c r="B54" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="57" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>200</v>
+      <c r="B55" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="57" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>155</v>
+      <c r="B56" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="57" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="58" t="s">
-        <v>201</v>
+      <c r="B57" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="57" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="58" t="s">
-        <v>202</v>
+      <c r="B58" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="57" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="58" t="s">
-        <v>203</v>
+      <c r="B59" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="57" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="58" t="s">
-        <v>204</v>
+      <c r="B60" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="57" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="58" t="s">
-        <v>205</v>
+      <c r="B61" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="57" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="58" t="s">
-        <v>206</v>
+      <c r="B62" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="57" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="58" t="s">
-        <v>207</v>
+      <c r="B63" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="57" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="58" t="s">
-        <v>208</v>
+      <c r="B64" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="57" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="58" t="s">
-        <v>209</v>
+      <c r="B65" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="57" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="58" t="s">
-        <v>210</v>
+      <c r="B66" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="57" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="58" t="s">
-        <v>211</v>
+      <c r="B67" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="57" t="n">
         <v>66</v>
       </c>
-      <c r="B68" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="58" t="s">
-        <v>149</v>
+      <c r="B68" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="57" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="58" t="s">
-        <v>212</v>
+      <c r="B69" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="57" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" s="58" t="s">
-        <v>213</v>
+      <c r="B70" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="57" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="58" t="s">
-        <v>214</v>
+      <c r="B71" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="57" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="58" t="s">
-        <v>215</v>
+      <c r="B72" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="57" t="n">
         <v>71</v>
       </c>
-      <c r="B73" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="58" t="s">
-        <v>156</v>
+      <c r="B73" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="57" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="58" t="s">
-        <v>157</v>
+      <c r="B74" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="57" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" s="58" t="s">
-        <v>168</v>
+      <c r="B75" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="57" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" s="58" t="s">
-        <v>167</v>
+      <c r="B76" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="57" t="n">
         <v>75</v>
       </c>
-      <c r="B77" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" s="58" t="s">
-        <v>166</v>
+      <c r="B77" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="57" t="n">
         <v>76</v>
       </c>
-      <c r="B78" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" s="58" t="s">
-        <v>143</v>
+      <c r="B78" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="57" t="n">
         <v>77</v>
       </c>
-      <c r="B79" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" s="58" t="s">
-        <v>165</v>
+      <c r="B79" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="57" t="n">
         <v>78</v>
       </c>
-      <c r="B80" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="58" t="s">
-        <v>163</v>
+      <c r="B80" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="57" t="n">
         <v>79</v>
       </c>
-      <c r="B81" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="58" t="s">
-        <v>171</v>
+      <c r="B81" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="57" t="n">
         <v>80</v>
       </c>
-      <c r="B82" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C82" s="58" t="s">
-        <v>172</v>
+      <c r="B82" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="57" t="n">
         <v>81</v>
       </c>
-      <c r="B83" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="58" t="s">
-        <v>173</v>
+      <c r="B83" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="57" t="n">
         <v>82</v>
       </c>
-      <c r="B84" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" s="58" t="s">
-        <v>183</v>
+      <c r="B84" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="57" t="n">
         <v>83</v>
       </c>
-      <c r="B85" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" s="58" t="s">
-        <v>175</v>
+      <c r="B85" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="57" t="n">
         <v>84</v>
       </c>
-      <c r="B86" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C86" s="58" t="s">
-        <v>176</v>
+      <c r="B86" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="57" t="n">
         <v>85</v>
       </c>
-      <c r="B87" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" s="58" t="s">
-        <v>180</v>
+      <c r="B87" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="57" t="n">
         <v>86</v>
       </c>
-      <c r="B88" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="58" t="s">
-        <v>178</v>
+      <c r="B88" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="57" t="n">
         <v>87</v>
       </c>
-      <c r="B89" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="C89" s="58" t="s">
-        <v>186</v>
+      <c r="B89" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="57" t="n">
         <v>88</v>
       </c>
-      <c r="B90" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C90" s="58" t="s">
-        <v>187</v>
+      <c r="B90" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="57" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="C91" s="58" t="s">
-        <v>188</v>
+      <c r="B91" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="57" t="n">
         <v>90</v>
       </c>
-      <c r="B92" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C92" s="58" t="s">
-        <v>189</v>
+      <c r="B92" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="57" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" s="58" t="s">
-        <v>190</v>
+      <c r="B93" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="57" t="n">
         <v>92</v>
       </c>
-      <c r="B94" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="C94" s="58" t="s">
-        <v>191</v>
+      <c r="B94" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="57" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C95" s="58" t="s">
-        <v>192</v>
+      <c r="B95" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="57" t="n">
         <v>94</v>
       </c>
-      <c r="B96" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" s="58" t="s">
-        <v>193</v>
+      <c r="B96" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="57" t="n">
         <v>95</v>
       </c>
-      <c r="B97" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" s="58" t="s">
-        <v>201</v>
+      <c r="B97" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="57" t="n">
         <v>96</v>
       </c>
-      <c r="B98" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C98" s="58" t="s">
-        <v>202</v>
+      <c r="B98" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="57" t="n">
         <v>97</v>
       </c>
-      <c r="B99" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="C99" s="58" t="s">
-        <v>203</v>
+      <c r="B99" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="57" t="n">
         <v>98</v>
       </c>
-      <c r="B100" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" s="58" t="s">
-        <v>204</v>
+      <c r="B100" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="57" t="n">
         <v>99</v>
       </c>
-      <c r="B101" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C101" s="58" t="s">
-        <v>205</v>
+      <c r="B101" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="57" t="n">
         <v>100</v>
       </c>
-      <c r="B102" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C102" s="58" t="s">
-        <v>206</v>
+      <c r="B102" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="57" t="n">
         <v>101</v>
       </c>
-      <c r="B103" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C103" s="58" t="s">
-        <v>207</v>
+      <c r="B103" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="57" t="n">
         <v>102</v>
       </c>
-      <c r="B104" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="C104" s="58" t="s">
-        <v>208</v>
+      <c r="B104" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="57" t="n">
         <v>103</v>
       </c>
-      <c r="B105" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" s="58" t="s">
-        <v>156</v>
+      <c r="B105" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="57" t="n">
         <v>104</v>
       </c>
-      <c r="B106" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C106" s="58" t="s">
-        <v>157</v>
+      <c r="B106" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="57" t="n">
         <v>105</v>
       </c>
-      <c r="B107" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="C107" s="58" t="s">
-        <v>168</v>
+      <c r="B107" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="57" t="n">
         <v>106</v>
       </c>
-      <c r="B108" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C108" s="58" t="s">
-        <v>166</v>
+      <c r="B108" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="57" t="n">
         <v>107</v>
       </c>
-      <c r="B109" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="58" t="s">
-        <v>171</v>
+      <c r="B109" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="57" t="n">
         <v>108</v>
       </c>
-      <c r="B110" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C110" s="58" t="s">
-        <v>172</v>
+      <c r="B110" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="57" t="n">
         <v>109</v>
       </c>
-      <c r="B111" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C111" s="58" t="s">
-        <v>176</v>
+      <c r="B111" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="57" t="n">
         <v>110</v>
       </c>
-      <c r="B112" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C112" s="58" t="s">
-        <v>175</v>
+      <c r="B112" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="57" t="n">
         <v>111</v>
       </c>
-      <c r="B113" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="C113" s="58" t="s">
-        <v>186</v>
+      <c r="B113" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="57" t="n">
         <v>112</v>
       </c>
-      <c r="B114" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="C114" s="58" t="s">
-        <v>187</v>
+      <c r="B114" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="57" t="n">
         <v>113</v>
       </c>
-      <c r="B115" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115" s="58" t="s">
-        <v>188</v>
+      <c r="B115" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="57" t="n">
         <v>114</v>
       </c>
-      <c r="B116" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C116" s="58" t="s">
-        <v>189</v>
+      <c r="B116" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="57" t="n">
         <v>115</v>
       </c>
-      <c r="B117" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C117" s="58" t="s">
-        <v>201</v>
+      <c r="B117" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="57" t="n">
         <v>116</v>
       </c>
-      <c r="B118" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="C118" s="58" t="s">
-        <v>207</v>
+      <c r="B118" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="57" t="n">
         <v>117</v>
       </c>
-      <c r="B119" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C119" s="58" t="s">
-        <v>203</v>
+      <c r="B119" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="57" t="n">
         <v>118</v>
       </c>
-      <c r="B120" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C120" s="58" t="s">
-        <v>205</v>
+      <c r="B120" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="57" t="n">
         <v>119</v>
       </c>
-      <c r="B121" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C121" s="58" t="s">
-        <v>156</v>
+      <c r="B121" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="57" t="n">
         <v>120</v>
       </c>
-      <c r="B122" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C122" s="58" t="s">
-        <v>157</v>
+      <c r="B122" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="57" t="n">
         <v>121</v>
       </c>
-      <c r="B123" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="C123" s="58" t="s">
-        <v>171</v>
+      <c r="B123" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="57" t="n">
         <v>122</v>
       </c>
-      <c r="B124" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C124" s="58" t="s">
-        <v>176</v>
+      <c r="B124" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="57" t="n">
         <v>123</v>
       </c>
-      <c r="B125" s="58" t="s">
+      <c r="B125" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C125" s="58" t="s">
-        <v>186</v>
+      <c r="C125" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="57" t="n">
         <v>124</v>
       </c>
-      <c r="B126" s="58" t="s">
+      <c r="B126" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C126" s="58" t="s">
-        <v>187</v>
+      <c r="C126" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="57" t="n">
         <v>125</v>
       </c>
-      <c r="B127" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="C127" s="58" t="s">
-        <v>205</v>
+      <c r="B127" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="57" t="n">
         <v>126</v>
       </c>
-      <c r="B128" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C128" s="58" t="s">
-        <v>207</v>
+      <c r="B128" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="57" t="n">
         <v>127</v>
       </c>
-      <c r="B129" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C129" s="58" t="s">
-        <v>156</v>
+      <c r="B129" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="57" t="n">
         <v>128</v>
       </c>
-      <c r="B130" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C130" s="58" t="s">
-        <v>171</v>
+      <c r="B130" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="57" t="n">
         <v>129</v>
       </c>
-      <c r="B131" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="C131" s="58" t="s">
-        <v>186</v>
+      <c r="B131" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="57" t="n">
         <v>130</v>
       </c>
-      <c r="B132" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C132" s="58" t="s">
-        <v>207</v>
+      <c r="B132" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="57" t="n">
         <v>131</v>
       </c>
-      <c r="B133" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C133" s="58" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="57" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C134" s="58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="57" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" s="58" t="s">
+      <c r="B133" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C135" s="58" t="s">
-        <v>207</v>
+      <c r="C133" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
